--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Parker.Spring.030921.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Parker.Spring.030921.xlsx_with_dialog_acts.xlsx
@@ -1117,12 +1117,12 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1991,12 +1991,12 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2143,12 +2143,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2751,12 +2751,12 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2793,12 +2793,12 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3021,12 +3021,12 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3173,12 +3173,12 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3363,12 +3363,12 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3705,12 +3705,12 @@
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3937,12 +3937,12 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3975,12 +3975,12 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4431,12 +4431,12 @@
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -4851,12 +4851,12 @@
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5235,12 +5235,12 @@
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5653,12 +5653,12 @@
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5881,12 +5881,12 @@
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6753,12 +6753,12 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7095,12 +7095,12 @@
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7361,12 +7361,12 @@
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7627,12 +7627,12 @@
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7741,12 +7741,12 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8235,12 +8235,12 @@
       <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8619,12 +8619,12 @@
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8733,12 +8733,12 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8965,12 +8965,12 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9311,12 +9311,12 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9501,12 +9501,12 @@
       <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9539,12 +9539,12 @@
       <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9881,12 +9881,12 @@
       <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10037,12 +10037,12 @@
       <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10303,12 +10303,12 @@
       <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10763,12 +10763,12 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11067,12 +11067,12 @@
       <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11219,12 +11219,12 @@
       <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11409,12 +11409,12 @@
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11759,12 +11759,12 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11797,12 +11797,12 @@
       <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12291,12 +12291,12 @@
       <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12443,12 +12443,12 @@
       <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12633,12 +12633,12 @@
       <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13507,12 +13507,12 @@
       <c r="H343" t="inlineStr"/>
       <c r="I343" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13929,12 +13929,12 @@
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14157,12 +14157,12 @@
       <c r="H360" t="inlineStr"/>
       <c r="I360" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14617,12 +14617,12 @@
       <c r="H372" t="inlineStr"/>
       <c r="I372" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14997,12 +14997,12 @@
       <c r="H382" t="inlineStr"/>
       <c r="I382" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15453,12 +15453,12 @@
       <c r="H394" t="inlineStr"/>
       <c r="I394" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15605,12 +15605,12 @@
       <c r="H398" t="inlineStr"/>
       <c r="I398" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16137,12 +16137,12 @@
       <c r="H412" t="inlineStr"/>
       <c r="I412" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16251,12 +16251,12 @@
       <c r="H415" t="inlineStr"/>
       <c r="I415" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17167,12 +17167,12 @@
       <c r="H439" t="inlineStr"/>
       <c r="I439" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17205,12 +17205,12 @@
       <c r="H440" t="inlineStr"/>
       <c r="I440" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -17243,12 +17243,12 @@
       <c r="H441" t="inlineStr"/>
       <c r="I441" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17357,12 +17357,12 @@
       <c r="H444" t="inlineStr"/>
       <c r="I444" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J444" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17889,12 +17889,12 @@
       <c r="H458" t="inlineStr"/>
       <c r="I458" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -18535,12 +18535,12 @@
       <c r="H475" t="inlineStr"/>
       <c r="I475" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18839,12 +18839,12 @@
       <c r="H483" t="inlineStr"/>
       <c r="I483" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19029,12 +19029,12 @@
       </c>
       <c r="I488" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J488" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19109,12 +19109,12 @@
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J490" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19147,12 +19147,12 @@
       <c r="H491" t="inlineStr"/>
       <c r="I491" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19303,12 +19303,12 @@
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19341,12 +19341,12 @@
       <c r="H496" t="inlineStr"/>
       <c r="I496" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J496" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19531,12 +19531,12 @@
       <c r="H501" t="inlineStr"/>
       <c r="I501" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19797,12 +19797,12 @@
       <c r="H508" t="inlineStr"/>
       <c r="I508" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J508" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20025,12 +20025,12 @@
       <c r="H514" t="inlineStr"/>
       <c r="I514" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J514" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20215,12 +20215,12 @@
       <c r="H519" t="inlineStr"/>
       <c r="I519" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J519" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20367,12 +20367,12 @@
       <c r="H523" t="inlineStr"/>
       <c r="I523" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J523" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20557,12 +20557,12 @@
       <c r="H528" t="inlineStr"/>
       <c r="I528" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J528" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20823,12 +20823,12 @@
       <c r="H535" t="inlineStr"/>
       <c r="I535" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J535" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21013,12 +21013,12 @@
       <c r="H540" t="inlineStr"/>
       <c r="I540" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J540" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -21355,12 +21355,12 @@
       <c r="H549" t="inlineStr"/>
       <c r="I549" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J549" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21393,12 +21393,12 @@
       <c r="H550" t="inlineStr"/>
       <c r="I550" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J550" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21469,12 +21469,12 @@
       <c r="H552" t="inlineStr"/>
       <c r="I552" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J552" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -22153,12 +22153,12 @@
       <c r="H570" t="inlineStr"/>
       <c r="I570" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J570" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -22381,12 +22381,12 @@
       <c r="H576" t="inlineStr"/>
       <c r="I576" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J576" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -22803,12 +22803,12 @@
       </c>
       <c r="I587" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J587" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23945,12 +23945,12 @@
       </c>
       <c r="I617" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J617" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -24249,12 +24249,12 @@
       </c>
       <c r="I625" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J625" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -24401,12 +24401,12 @@
       <c r="H629" t="inlineStr"/>
       <c r="I629" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J629" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24439,12 +24439,12 @@
       <c r="H630" t="inlineStr"/>
       <c r="I630" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J630" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24933,12 +24933,12 @@
       <c r="H643" t="inlineStr"/>
       <c r="I643" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J643" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -25579,12 +25579,12 @@
       <c r="H660" t="inlineStr"/>
       <c r="I660" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J660" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26719,12 +26719,12 @@
       <c r="H690" t="inlineStr"/>
       <c r="I690" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J690" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -27137,12 +27137,12 @@
       <c r="H701" t="inlineStr"/>
       <c r="I701" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J701" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -27251,12 +27251,12 @@
       <c r="H704" t="inlineStr"/>
       <c r="I704" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J704" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -27403,12 +27403,12 @@
       <c r="H708" t="inlineStr"/>
       <c r="I708" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J708" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -28353,12 +28353,12 @@
       <c r="H733" t="inlineStr"/>
       <c r="I733" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J733" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -28771,12 +28771,12 @@
       <c r="H744" t="inlineStr"/>
       <c r="I744" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J744" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -28885,12 +28885,12 @@
       <c r="H747" t="inlineStr"/>
       <c r="I747" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J747" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28923,12 +28923,12 @@
       <c r="H748" t="inlineStr"/>
       <c r="I748" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J748" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -28961,12 +28961,12 @@
       <c r="H749" t="inlineStr"/>
       <c r="I749" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J749" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -29531,12 +29531,12 @@
       <c r="H764" t="inlineStr"/>
       <c r="I764" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J764" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30101,12 +30101,12 @@
       <c r="H779" t="inlineStr"/>
       <c r="I779" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J779" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -30291,12 +30291,12 @@
       <c r="H784" t="inlineStr"/>
       <c r="I784" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J784" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30557,12 +30557,12 @@
       <c r="H791" t="inlineStr"/>
       <c r="I791" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J791" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -30747,12 +30747,12 @@
       </c>
       <c r="I796" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J796" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30785,12 +30785,12 @@
       <c r="H797" t="inlineStr"/>
       <c r="I797" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J797" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -30861,12 +30861,12 @@
       <c r="H799" t="inlineStr"/>
       <c r="I799" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J799" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -30937,12 +30937,12 @@
       <c r="H801" t="inlineStr"/>
       <c r="I801" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J801" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -31203,12 +31203,12 @@
       <c r="H808" t="inlineStr"/>
       <c r="I808" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J808" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -31355,12 +31355,12 @@
       <c r="H812" t="inlineStr"/>
       <c r="I812" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J812" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -31469,12 +31469,12 @@
       <c r="H815" t="inlineStr"/>
       <c r="I815" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J815" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -31887,12 +31887,12 @@
       <c r="H826" t="inlineStr"/>
       <c r="I826" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J826" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -32001,12 +32001,12 @@
       <c r="H829" t="inlineStr"/>
       <c r="I829" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J829" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -32305,12 +32305,12 @@
       <c r="H837" t="inlineStr"/>
       <c r="I837" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J837" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -32571,12 +32571,12 @@
       <c r="H844" t="inlineStr"/>
       <c r="I844" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J844" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -32993,12 +32993,12 @@
       <c r="H855" t="inlineStr"/>
       <c r="I855" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J855" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -33605,12 +33605,12 @@
       </c>
       <c r="I871" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J871" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -34213,12 +34213,12 @@
       <c r="H887" t="inlineStr"/>
       <c r="I887" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J887" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -34251,12 +34251,12 @@
       </c>
       <c r="I888" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J888" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -34441,12 +34441,12 @@
       <c r="H893" t="inlineStr"/>
       <c r="I893" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J893" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -34859,12 +34859,12 @@
       <c r="H904" t="inlineStr"/>
       <c r="I904" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J904" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -35125,12 +35125,12 @@
       <c r="H911" t="inlineStr"/>
       <c r="I911" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J911" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -35277,12 +35277,12 @@
       <c r="H915" t="inlineStr"/>
       <c r="I915" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J915" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -35315,12 +35315,12 @@
       <c r="H916" t="inlineStr"/>
       <c r="I916" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J916" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -35353,12 +35353,12 @@
       <c r="H917" t="inlineStr"/>
       <c r="I917" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J917" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -35581,12 +35581,12 @@
       <c r="H923" t="inlineStr"/>
       <c r="I923" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J923" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -35771,12 +35771,12 @@
       <c r="H928" t="inlineStr"/>
       <c r="I928" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J928" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -35885,12 +35885,12 @@
       <c r="H931" t="inlineStr"/>
       <c r="I931" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J931" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -35961,12 +35961,12 @@
       <c r="H933" t="inlineStr"/>
       <c r="I933" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J933" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -35999,12 +35999,12 @@
       <c r="H934" t="inlineStr"/>
       <c r="I934" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J934" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -36151,12 +36151,12 @@
       <c r="H938" t="inlineStr"/>
       <c r="I938" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J938" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -36189,12 +36189,12 @@
       </c>
       <c r="I939" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J939" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -36227,12 +36227,12 @@
       <c r="H940" t="inlineStr"/>
       <c r="I940" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J940" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
